--- a/clean_file.xlsx
+++ b/clean_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +426,7 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="56" customWidth="1" min="5" max="5"/>
-    <col width="98" customWidth="1" min="6" max="6"/>
+    <col width="114" customWidth="1" min="6" max="6"/>
     <col width="48" customWidth="1" min="7" max="7"/>
     <col width="184" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
@@ -3947,6 +3947,5462 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>["Purple", "Green"]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[["Red", ""], ["Red", ""]]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[0.3, 0.3]</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>7gbk6w9k</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>["Purple", "Green"]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[["Red", ""], ["Red", ""]]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[0.3, 0.3]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4qjgi9x1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>k28rvdt3</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>v84y5c5p</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>sgyzq80b</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>t7v1rzgp</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>kff8ec41</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>g22f2wxf</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>xy2fpd32</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>avp5jgtc</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>zofjsygm</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>lzn0sgla</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>184uzcbe</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>tc5ml1jc</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>["Purple", "Green"]</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[["Red", "Blue"], ["Blue", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>[0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>["Green", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>[["Blue", "Yellow"], ["Red", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>[0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>["Purple", "Green", "Green"]</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>[["Red", "Blue"], ["Blue", "Yellow"], ["Yellow", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>[0.8, 0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>["Green", "Purple", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>[["Blue", "Yellow"], ["Blue", "Red"], ["Red", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>[0.8, 0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Test 1</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>["Green", "Yellow", "Purple", "Red", "Orange", "Blue"]</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>[["Blue", "Yellow"], ["Yellow", ""], ["Blue", "Red"], ["Red", ""], ["Yellow", "Red"], ["Blue", ""]]</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>[1.6, 0.6, 1.6, 0.6, 1.2, 1.0]</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>[null, null, null, null, null, null]</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>["Orange", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>[["Red", "Yellow"], ["Red", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>[0.6, 0.8]</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>["Orange", "Green"]</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>[["Red", "Yellow"], ["Blue", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>[0.6, 0.8]</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>["Green", "Red", "Green"]</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[["Blue", "Yellow"], ["Red", "Red"], ["Blue", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>[0.8, 0.6, 0.8]</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>["Blue", "Purple", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[["Blue", "Blue"], ["Red", "Blue"], ["Blue", "Red"]]</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>[1.0, 0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>["Purple", "Green", "Yellow"]</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>[["Blue", "Blue"], ["Blue", "Yellow"], ["Yellow", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>[1.0, 0.8, 0.6]</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>["Green", "Yellow", "Purple", "Red", "Orange", "Blue"]</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>[["Blue", "Blue"], ["Blue", "Blue"], ["Blue", "Blue"], ["Blue", "Blue"], ["Blue", "Blue"], ["Blue", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>[2.0, 2.0, 2.0, 2.0, 2.0, 2.0]</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>[null, null, null, null, null, null]</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>urtor7b5</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Anomaly no noise</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>["Purple", "Green"]</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>[["Red", "Blue"], ["Blue", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>[0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>["Green", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>[["Blue", "Yellow"], ["Red", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>[0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>["Purple", "Green", "Green"]</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>[["Red", "Blue"], ["Blue", "Yellow"], ["Blue", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>[0.8, 0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>["Green", "Purple", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>[["Blue", "Yellow"], ["Red", "Blue"], ["Red", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>[0.8, 0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Test 1</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>["Green", "Yellow", "Purple", "Red", "Orange", "Blue"]</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>[["Yellow", "Blue"], ["Yellow", "Yellow"], ["Blue", "Red"], ["Red", "Red"], ["Yellow", "Red"], ["Blue", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>[1.6, 1.2, 1.6, 1.2, 1.2, 2.0]</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>[null, null, null, null, null, null]</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>["Orange", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>[["Red", "Yellow"], ["Blue", "Red"]]</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>[0.6, 0.8]</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>["Orange", "Green"]</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>[["Red", "Yellow"], ["Blue", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>[0.6, 0.8]</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>[null, null]</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>["Green", "Red", "Green"]</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>[["Blue", "Yellow"], ["Red", "Red"], ["Blue", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>[0.8, 0.6, 0.8]</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>["Blue", "Purple", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>[["Blue", "Blue"], ["Red", "Blue"], ["Blue", "Red"]]</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>[1.0, 0.8, 0.8]</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Second phase</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>["Purple", "Green", "Yellow"]</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>[["Blue", "Blue"], ["Blue", "Blue"], ["Yellow", "Yellow"]]</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>[1.0, 1.0, 0.6]</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>[null, null, null]</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>["Green", "Yellow", "Purple", "Red", "Orange", "Blue"]</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>[["Blue", "Blue"], ["Blue", "Blue"], ["Blue", "Blue"], ["Blue", "Blue"], ["Blue", "Blue"], ["Blue", "Blue"]]</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>[2.0, 2.0, 2.0, 2.0, 2.0, 2.0]</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>[null, null, null, null, null, null]</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>9tr5v7ly</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Transmission M&amp;M</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/clean_file.xlsx
+++ b/clean_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,17 +423,19 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="56" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
-    <col width="32" customWidth="1" min="7" max="7"/>
-    <col width="154" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="660" customWidth="1" min="12" max="12"/>
-    <col width="35" customWidth="1" min="13" max="13"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="66" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="317" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,30 +476,40 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Vround</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Score_reel_flower</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Noise_applied</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Total_earnings</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Birth_year</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Feedback</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>QCM_sequence_raw</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>QCM_sequence_bool</t>
         </is>
@@ -506,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
+          <t>ya5c2ooh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,31 +553,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>["3", "3"]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>[null, null]</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[{"slide":"5/9","text":"Earnings are determined randomly","correct":false,"timestamp":1767699023568},{"slide":"5/9","text":"How fast I choose the configurations","correct":false,"timestamp":1767699024218},{"slide":"5/9","text":"Flower growth based on my nutrient choices","correct":true,"timestamp":1767699025137},{"slide":"8/9","text":"Your final payoff is calculated by adding the earnings from each round.","correct":false,"timestamp":1767699031031},{"slide":"8/9","text":"Your final payoff is calculated by adding the earnings from each round, plus the earnings of the  two tests added to the total at the end.","correct":true,"timestamp":1767699031834}]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[False, False, True, False, True]</t>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[{"slide":"5/9","text":"Flower growth based on my nutrient choices","correct":true,"timestamp":1768993827630},{"slide":"8/9","text":"Your final payoff is calculated by adding the earnings from each round, plus the earnings of the  two tests added to the total at the end.","correct":true,"timestamp":1768993829629}]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[True, True]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
+          <t>ya5c2ooh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -600,18 +622,28 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>["4", "4"]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>[null, null]</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -620,53 +652,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>First phase</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>["Purple", "Green", "Green"]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[0.3, 0.3, 0.3]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[null, null, null]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -675,53 +685,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>First phase</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>["Green", "Purple", "Purple"]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[0.3, 0.3, 0.3]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[null, null, null]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -730,53 +718,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Test 1</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>["Green", "Yellow", "Purple", "Red", "Orange", "Blue"]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""], ["Red", ""], ["Red", ""], ["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[0.6, 0.6, 0.6, 0.6, 0.6, 0.6]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[null, null, null, null, null, null]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -785,53 +751,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Second phase</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>["Orange", "Purple"]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[0.3, 0.3]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[null, null]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -840,53 +784,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Second phase</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>["Orange", "Green"]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[0.3, 0.3]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[null, null]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -895,53 +817,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Second phase</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>["Green", "Red", "Green"]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[0.3, 0.3, 0.3]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[null, null, null]</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -950,53 +850,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Second phase</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>["Blue", "Purple", "Purple"]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[0.3, 0.3, 0.3]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[null, null, null]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1005,53 +883,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Second phase</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>["Purple", "Green", "Yellow"]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[0.3, 0.3, 0.3]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[null, null, null]</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1060,53 +916,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Test 2</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>["Green", "Yellow", "Purple", "Red", "Orange", "Blue"]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""], ["Red", ""], ["Red", ""], ["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[0.6, 0.6, 0.6, 0.6, 0.6, 0.6]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[null, null, null, null, null, null]</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1115,158 +949,198 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hyjpk071</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Anomaly no noise</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Results</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Annaa</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No Anomaly noisy</t>
-        </is>
-      </c>
+          <t>ya5c2ooh</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>First phase</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>["Purple", "Green"]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[["Red", ""], ["Red", ""]]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[0.3, 0.5]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[{"index": 0, "type": "none", "amount": 0.0, "before": 0.3, "after": 0.3}, {"index": 1, "type": "increase", "amount": 0.2, "before": 0.3, "after": 0.5}]</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[{"slide":"5/9","text":"Earnings are determined randomly","correct":false,"timestamp":1767699517478},{"slide":"5/9","text":"How fast I choose the configurations","correct":false,"timestamp":1767699518490},{"slide":"5/9","text":"Flower growth based on my nutrient choices","correct":true,"timestamp":1767699519155},{"slide":"8/9","text":"Your final payoff is calculated by adding the earnings from each round, plus the earnings of the  two tests added to the total at the end.","correct":true,"timestamp":1767699524342}]</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[False, False, True, True]</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+          <t>sfsaqxt0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Anomaly noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>["Purple", "Green"]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[["Red", ""], ["Red", ""]]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[0.3, 0.3]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>["5", "3"]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{"index": 0, "type": "increase"}, {"index": 1, "type": "none"}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>[]</t>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[{"slide":"5/9","text":"Flower growth based on my nutrient choices","correct":true,"timestamp":1768993815884},{"slide":"8/9","text":"Your final payoff is calculated by adding the earnings from each round, plus the earnings of the  two tests added to the total at the end.","correct":true,"timestamp":1768993817791}]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[True, True]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>sfsaqxt0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anomaly noisy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>First phase</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>["Green", "Purple"]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[["Blue", ""], ["Red", ""]]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[0.5, 0.3]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>["8", "4"]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{"index": 0, "type": "increase"}, {"index": 1, "type": "none"}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1275,29 +1149,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1306,29 +1182,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1337,29 +1215,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1368,29 +1248,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1399,29 +1281,31 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1430,29 +1314,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1461,29 +1347,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1492,33 +1380,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Test 2</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1527,29 +1413,101 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>n6nopx8w</t>
+          <t>sfsaqxt0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Results</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sfsaqxt0</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Test 2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sfsaqxt0</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Results</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
